--- a/Resources/Election Analysis Additional Visualization.xlsx
+++ b/Resources/Election Analysis Additional Visualization.xlsx
@@ -8,13 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e23617801f9d04d6/Documents/UOT Data Analytics Bootcamp/MODULES_STUDY CLASS/3_Module_PyPoll with Python/Challenge_Pyton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{E3C6ECB2-B53F-47CC-9A66-560B151CE638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24C9581D-4A19-4081-9520-CC365B53D0DC}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{E3C6ECB2-B53F-47CC-9A66-560B151CE638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B31D68C-A413-499F-939A-B4B75AAF2F20}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{08D1089A-C4B7-4E27-A8BC-8F90CCDBA51A}"/>
   </bookViews>
   <sheets>
     <sheet name="Election Analysis Visualization" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Election Analysis Visualization'!$G$7:$G$9</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Election Analysis Visualization'!$H$6</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Election Analysis Visualization'!$H$7:$H$9</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Election Analysis Visualization'!$I$6</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Election Analysis Visualization'!$I$7:$I$9</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Election Analysis Visualization'!$I$7:$I$9</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Election Analysis Visualization'!$J$6</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Election Analysis Visualization'!$J$7:$J$9</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Election Analysis Visualization'!$K$6</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Election Analysis Visualization'!$K$7:$K$9</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
   <si>
     <t>Colorado Board of Election. Political race review of the arranged outcomes for the U.S. Legislative region in Colorado</t>
   </si>
@@ -63,13 +75,25 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t>County Votes</t>
+  </si>
+  <si>
+    <t>Denver</t>
+  </si>
+  <si>
+    <t>Jefferson</t>
+  </si>
+  <si>
+    <t>Arapahoe</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -165,17 +189,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -229,21 +253,21 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="pt-BR"/>
+              <a:rPr lang="pt-BR" sz="1200" b="1"/>
               <a:t>Colorado Board</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:rPr lang="pt-BR" sz="1200" b="1" baseline="0"/>
               <a:t> of Election.</a:t>
             </a:r>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="pt-BR" sz="1200" b="1"/>
           </a:p>
           <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="pt-BR"/>
+              <a:rPr lang="pt-BR" sz="1200" b="1"/>
               <a:t>Elections Results</a:t>
             </a:r>
           </a:p>
@@ -253,8 +277,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.40902077865266839"/>
-          <c:y val="8.7962962962962965E-2"/>
+          <c:x val="0.43241249814533417"/>
+          <c:y val="4.6296296296296294E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -767,6 +791,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="479810624"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -818,7 +843,183 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.7</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.9</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Colorado Board of Election. Elections results by county</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" i="1" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Colorado Board of Election. Elections results by county</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="waterfall" uniqueId="{8DFA67E3-42D4-4281-8303-686F56A19C9A}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:v>Total votes</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels pos="outEnd">
+            <cx:txPr>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="1100" b="1"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:txPr>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+            <cx:dataLabel idx="0">
+              <cx:txPr>
+                <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr" rtl="0">
+                    <a:defRPr sz="1200"/>
+                  </a:pPr>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:sysClr>
+                      </a:solidFill>
+                      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                    </a:rPr>
+                    <a:t>306055</a:t>
+                  </a:r>
+                </a:p>
+              </cx:txPr>
+            </cx:dataLabel>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:subtotals/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="waterfall" hidden="1" uniqueId="{F708EC94-92EE-4EDA-A3F0-B8A105339B6C}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:v>% votes</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels pos="outEnd">
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:subtotals/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1" hidden="1">
+        <cx:valScaling/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1361,6 +1562,514 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="395">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1397,6 +2106,434 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="Group 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F45DCF57-2536-47D3-A9EF-B714C0EF3E3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5486400" y="2366962"/>
+          <a:ext cx="4676775" cy="2757488"/>
+          <a:chOff x="5514975" y="2366962"/>
+          <a:chExt cx="4676775" cy="2757488"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+          <xdr:graphicFrame macro="">
+            <xdr:nvGraphicFramePr>
+              <xdr:cNvPr id="2" name="Chart 1">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A3416D4-FAA7-42A9-B88C-6106C679985F}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvGraphicFramePr/>
+            </xdr:nvGraphicFramePr>
+            <xdr:xfrm>
+              <a:off x="5514975" y="2366962"/>
+              <a:ext cx="4676775" cy="2757488"/>
+            </xdr:xfrm>
+            <a:graphic>
+              <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+                <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+              </a:graphicData>
+            </a:graphic>
+          </xdr:graphicFrame>
+        </mc:Choice>
+        <mc:Fallback>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="0" name=""/>
+              <xdr:cNvSpPr>
+                <a:spLocks noTextEdit="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="5514975" y="2366962"/>
+                <a:ext cx="4676775" cy="2757488"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:prstClr val="white"/>
+              </a:solidFill>
+              <a:ln w="1">
+                <a:solidFill>
+                  <a:prstClr val="green"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1100"/>
+                  <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Rectangle: Rounded Corners 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C02CA5B2-A08F-4732-9127-92ED0066B859}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5934075" y="4014787"/>
+            <a:ext cx="800100" cy="738188"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:gradFill flip="none" rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="48000">
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="97000"/>
+                  <a:lumOff val="3000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="16200000" scaled="1"/>
+            <a:tileRect/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" anchor="ctr"/>
+          <a:lstStyle>
+            <a:lvl1pPr marL="0" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Largest</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>County</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Turnout</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Oval 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7266F54D-DB8F-4F3F-A3C4-F446D157B437}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6353175" y="3209926"/>
+            <a:ext cx="638175" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="800"/>
+              <a:t>82.8%</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Oval 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0622A481-5C53-4B1C-9C4E-41D71758AD75}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7896225" y="2981326"/>
+            <a:ext cx="790575" cy="238124"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="800"/>
+              <a:t>10.5%</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="Oval 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9081F26B-4D9A-481A-A9A1-3A0173A713DE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9486900" y="2819401"/>
+            <a:ext cx="561975" cy="247649"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="800"/>
+              <a:t>6.7%</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1785,10 +2922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC00B3E-AC39-4615-B8B3-DB05409CFD4F}">
-  <dimension ref="B2:N14"/>
+  <dimension ref="B2:O21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1796,6 +2933,10 @@
     <col min="2" max="2" width="26.140625" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
@@ -1809,13 +2950,25 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1823,57 +2976,129 @@
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>272892</v>
       </c>
       <c r="D7" s="4">
         <f>C7/$C$11</f>
         <v>0.73812247945016518</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="6">
+        <v>306055</v>
+      </c>
+      <c r="K7" s="4">
+        <f>J7/$C$11</f>
+        <v>0.82782227199082525</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>85213</v>
       </c>
       <c r="D8" s="4">
         <f>C8/$C$11</f>
         <v>0.2304854332167558</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="6">
+        <v>38855</v>
+      </c>
+      <c r="K8" s="4">
+        <f>J8/$C$11</f>
+        <v>0.10509560169970598</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>11606</v>
       </c>
       <c r="D9" s="4">
         <f>C9/$C$11</f>
         <v>3.1392087333079077E-2</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="6">
+        <v>24801</v>
+      </c>
+      <c r="K9" s="4">
+        <f>J9/$C$11</f>
+        <v>6.7082126309468748E-2</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="9">
         <v>369711</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="9"/>
+      <c r="I11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="9">
+        <v>369711</v>
+      </c>
+      <c r="K11" s="9"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M14" t="s">
         <v>9</v>
       </c>
       <c r="N14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N18" t="s">
+        <v>9</v>
+      </c>
+      <c r="O18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N19" t="s">
+        <v>9</v>
+      </c>
+      <c r="O19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N20" t="s">
+        <v>9</v>
+      </c>
+      <c r="O20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N21" t="s">
+        <v>9</v>
+      </c>
+      <c r="O21" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1881,8 +3106,9 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:D9">
     <sortCondition descending="1" ref="C7:C9"/>
   </sortState>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C11:D11"/>
+    <mergeCell ref="J11:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
